--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF0B28E-25F6-4D97-B24D-5BD7E44BEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD01DFE-674B-42F4-9B93-584FFE7B387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Basics</t>
   </si>
@@ -556,12 +557,104 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>exception handling</t>
+  </si>
+  <si>
+    <t>dynamic memory</t>
+  </si>
+  <si>
+    <t>preprocessor</t>
+  </si>
+  <si>
+    <t>hidding</t>
+  </si>
+  <si>
+    <t>v-table</t>
+  </si>
+  <si>
+    <t>Chậm hơn vì dùng con trỏ _vptr tới vtable và gọi hàm thích hợp. Phải lập vtable để tìm đúng hàm
+Tốn tài nguyên hơn do mỗi đối tượng có thêm một con trỏ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">declare function cùng tên với base nhưng không override, khi đa hình function mà khác tham số (nếu không muốn hiding thì override keyword hoặc dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">using Base::method; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trong Derived
+private: using Base::method/attr;
+sử dụng funtion() = delete; ở lớp con</t>
+    </r>
+  </si>
+  <si>
+    <t>Cấp phát bộ nhớ: malloc, calloc, realloc và new
+Giải phóng bộ nhớ: free, delete</t>
+  </si>
+  <si>
+    <t>Bộ tiền xử lý có nhiệm vụ xử lý các chỉ thị tiền xử lý.
+Nó thay thế #include bằng nội dung các file tương ứng, thay thế các macro #define và lựa chọn các phần khác nhau trong src để compile dựa trên các chỉ thị #if…
+-&gt; Như vậy, nếu 1 header file chứa định nghĩa được include nhiều lần mà không có include guards thì sẽ bị lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#include, #define, #if, #ifdef. #ifndef, #endif,…
+</t>
+  </si>
+  <si>
+    <t>file .c .cpp --&gt; file .i --&gt; compile…</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture list: theo mặc định, lambda không thể truy cập tới các biến trong enclosing scope của nó
+[=] captures all variables by value
+[&amp;] captures all variables by ref
+</t>
+  </si>
+  <si>
+    <t>Lambda expr (lambda, closure) là các đơn giản và nhanh chóng để tạo 1 functor (functor là obj chứa operator() được overloađe để chúng có thể được gọi như function). Lambda cho phép định nghĩa 1 hàm ẩn danh bên trong 1 hàm khác. Lambda thường có 3 thành phần: capture list [], param list (), function body {}. Cả 3 thành phần đều có thể rỗng</t>
+  </si>
+  <si>
+    <t>Exception là khi mọi thứ xảy ra không bình thường, không như kỳ vọng. Exceptions có thể phát sinh tự động từ các hàm trong thư viện hoặc phát sinh thủ công theo chủ đích của người phát triển. Exception là dữ liệu. Các đoạn code có khả năng gây lỗi phải được đánh dấu trong 1 loại block code đặc biệt. Khi 1 exception được ném ra, việc thực thi block code đó sẽ chấm dứt nhưng chương trình vẫn sống. Nếu ở cuối block, exception không được bắt thì nó được đưa tới cấp cao hơn của chuỗi function, nếu exception không bị bắt ở cấp cao nhất (main) thì sẽ khiến chương trình dừng lại.</t>
+  </si>
+  <si>
+    <t>try {
+   // protected code
+} catch( ExceptionType e1 ) {
+   // catch block
+} catch( ExceptionType e2 ) {
+   // catch block
+} catch( ExceptionType eN ) {
+   // catch block
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là cơ chế giải quyết dynamic binding, dynamic polymorphism
+Với class có virtual function, con trỏ _vptr được tạo ra mỗi khi có 1 đối tượng được khai báo, con trỏ này trỏ tới vtable. Khi override virtual function, fn trỏ tới d:fn, ngược lại fn trỏ tới b:fn
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +684,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +699,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -621,12 +720,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,6 +749,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,6 +860,116 @@
         <a:xfrm>
           <a:off x="8572500" y="5581653"/>
           <a:ext cx="6943725" cy="1200148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2219325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2178729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="c++ - Why is a virtual table required only in case of virtual functions? -  Stack Overflow">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA74D5B-5F39-24DF-D107-D2A83267D689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7105650" y="1714501"/>
+          <a:ext cx="2219325" cy="2178728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33133</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362630</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>993914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E079B483-3947-DCE7-8913-27057F31311E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7131329" y="5276022"/>
+          <a:ext cx="3526584" cy="853109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D9947C-99D0-43BA-9AB8-39686761F8C3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1244,4 +1477,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D911B-0C14-4168-924F-643D9742BAE5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD01DFE-674B-42F4-9B93-584FFE7B387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68E422-4D51-44C7-B173-DDC3B485B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Basics</t>
   </si>
@@ -649,12 +650,316 @@
 Với class có virtual function, con trỏ _vptr được tạo ra mỗi khi có 1 đối tượng được khai báo, con trỏ này trỏ tới vtable. Khi override virtual function, fn trỏ tới d:fn, ngược lại fn trỏ tới b:fn
 </t>
   </si>
+  <si>
+    <t>'1.QObject memory management</t>
+  </si>
+  <si>
+    <t>Qobject được tổ chức theo dạng cây. Khi tạo 1 QObj với 1 object khác là parent, nó sẽ được thêm vào parent's children() list.  Khi parent obj bị xoá, các children cũng được xoá cùng parent. Đây là cách tiếp cận phù hợp với GUI objs
+Khi xoá 1 Qobj, destructor sẽ tự động remove nó khỏi QObj cha (nếu có). Nếu Qobj có children, destructor tự động xoá các children. Khi tạo QObjs trên heap với bất kể thứ tự nào, và xoá với thứ tự nào. Không có QObj nào bị xoá 2 lần. 
+Khi tạo QObjs trên heap, cơ chế này cũng được áp dụng. Tuy nhiên, có thể xảy ra vấn đề khi thứ tự khởi tạo như ví dụ</t>
+  </si>
+  <si>
+    <t>QPushButton quit("Quit");
+QWidget window;
+quit.setParent(&amp;window);
+…
+window bị huỷ trước -&gt; huỷ quit.</t>
+  </si>
+  <si>
+    <t>2.Meta-Object System</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hệ thống meta-obj của Qt cung cấp cơ chế signals, slots để liên lạc giữa các đối tượng, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RTTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và hệ thống dynamic property.
+Hệ thống meta-obj dựa trên 3 thứ:
+- Lớp QObject cung cấp lớp cơ sở để các đối tượng có thể tận dụng hệ thống meta-obj 
+- Q_OBJECT macro bên trong phần private của khai báo lớp dùng để enable các tính năng của meta-object như dynamic properties, siggnals, slots
+- Meta-Object Compiler (moc) cung cấp mã nguồn cần thiết cho mỗi lớp con QObject để triển khai các tính năng của meta-obj
+moc tool đọc file mã nguồn C++, Nếu nó tìm thấy các khai báo lớp có chứa Q_OBJECT macro, nó sẽ tạo ra file mã nguồn C++ có chứa meta-obj code cho mỗi lớp đó. Tệp mã nguồn này sẽ được include vào mã nguồn của lớp, được compile và link với việc triển khai của lớp.
+Ngoài việc  cung cấp cơ chế signals, slots. Meta-obj code còn cung cấp các tính năng sau
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- QObject::metaObject() trả về meta-obj liên quan cho lớp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- QMetaObject::className() trả về tên lớp dưới dạng string tại run-time mà không yêu cầu hỗ trợ native RTTI thông qua trình biên dịch C++
+- QObject::inherits(): hàm kiểm tra xem đối tượng có thuộc 1 lớp kế thừa 1 lớp được chỉ định trong cây kế thừa QObject
+- QObject::tr() translates strings for internationalization.
+- QObject::setProperty(), ::property(): dynamically set and get properties by name.
+- QMetaObject::newInstance(): tạo 1 đối tượng mới của lớp
+Có thể thực hiện dynamic casts QObject bằng qobject_cast() (hành vi tương tự như C++ dynamic_cast()) với ưu điểm là nó không yêu cầu hỗ trợ RTTI và</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoạt động trên các ranh giới thư viện động.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sử dụng QObject làm lớp cơ sở mà có Q_OBJECT macro, các tính năng của meta-obj sẽ không khả dụng. QMetaObject::className() trả về tên của lớp tổ tiên gần nhất có meta-obj code. 
+"Therefore, we strongly recommend that all subclasses of QObject use the Q_OBJECT macro regardless of whether or not they actually use signals, slots, and properties."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>3.Signals and Slots</t>
+  </si>
+  <si>
+    <t>4.Events and Event Handling</t>
+  </si>
+  <si>
+    <t>5.Qt value-based classes: Memory allocation and usage of implicit sharing.</t>
+  </si>
+  <si>
+    <t>Nhiều lớp C++ trong Qt sử dụng cơ chế implicit data sharing nhằm tối đa hoá việc sử dụng tài nguyên và giảm thiểu việc sao chép dữ liệu. Các lớp được chia sẻ vừa an toàn và hiệu quả bởi khi được truyền dưới dạng đối số, chỉ có con trỏ tới dữ liệu được truyền xung quanh, còn data chỉ được sao chép khi thực hiện các hành động ghi dữ liệu vào nó (gọi là copy-on-write)
+1 shared class bao gồm 1 con trỏ tới 1 shared data block chứa ref count và data
+Việc gán đối tượng (operator =()) cho implicitly shared objects là shallow copies. Dữ liệu không bị lặp nếu không cần thiết, từ đó giảm tiêu tốn bộ nhớ và các thao tác sao chép data. Objs có thể được gán, passed as args và đượ trả về từ hàm một cách dễ dàng. Đây là cơ chế phía dưới, do đó lập trình viên thường không cần bận tâm về vấn đề này.
+Nếu muốn triển khai 1 lớp chia sẻ ngầm riêng, sử dụng lớp QSharedData và QSharedDataPointer
+Implicit sharing tự động tách obj từ 1 shared block nếu obj bị thay đổi và ref count &gt; 1</t>
+  </si>
+  <si>
+    <t>Qt's container iterators have different behavior than those from the STL. Read Implicit sharing iterator problem.
+In multithreaded applications, implicit sharing takes place, as explained in Threads and Implicitly Shared Classes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implicitly shared class kiểm soát dữ liệu bên trong nó. Bất kỳ member fns nào sửa dữ liệu, nó sẽ tự động detach trước khi thay đổi dữ liệu. (Ngoại lệ vs iterator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void QPen::setStyle(Qt::PenStyle style)
+{
+    detach();           // detach from common data
+    d-&gt;style = style;   // set the style member
+}
+void QPen::detach()
+{
+    if (d-&gt;ref != 1) {
+        ...             // perform a deep copy
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>QPixmap p1, p2;
+p1.load("image.bmp");
+p2 = p1;                        // p1 and p2 share data
+QPainter paint;
+paint.begin(&amp;p2);               // cuts p2 loose from p1
+paint.drawText(0,50, "Hi");
+paint.end();</t>
+  </si>
+  <si>
+    <t>6.Qt Meta-Type System and QVariant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVariant hoạt động như 1 union cho các kiểu dữ liệu phổ biến trong Qt. QVariant obj chỉ giữ 1 giá trị duy nhất của 1 typeId() tại 1 thời điểm (có 1 số 3 kiểu multi-valued). Có thể kiểm tra và convert sang 1 kiểu khác bằng canConvert() và convert(), lấy giá trị bằng hàm toT() (const)
+Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
+QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
+</t>
+  </si>
+  <si>
+    <t>canConvert() có thể trả về true trong khi convert() có thể trả về false, do canConvert() chỉ trả về khả năng chung. Ví dụ 1 string cũng có thể convert sang int, nhưng nếu chứa ký tự không phải số thì không convert sang int được.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 QVariant là null nếu nó không chứa giá trị khởi tạo hoặc chứa con trỏ null
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QVariant x;                             
+QVariant y = QVariant::fromValue(nullptr);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QVariant là 1 phần của mô-đun Qt Core nên nó không thể cung cấp các conversion functions cho các kiểu dữ liệu được define trong Qt GUI. Vd: không có hàm toColor(), thay vào đó dùng template fn: QVariant::value() hoặc qvariant_cast()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QVariant variant;
+QColor color = variant.value&lt;QColor&gt;();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ngược lại, chuyển đổi sang QVariant thì tự động với tất cả các kiểu dữ liệu đc hỗ trợ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QColor color = palette().background().color();
+QVariant variant = color;</t>
+    </r>
+  </si>
+  <si>
+    <t>7.Item containers: QStack, QList, QMap, etc..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thư viện Qt cung cấp một tập hợp template-based container classes cho mục đích chung, dùng để lưu trữ các items thuộc loại được chỉ định. Các container classes này được thiết kế nhẹ hơn, an toàn và dễ sử dụng hơn STL containers.
+Những lớp này được chia sẻ ngầm, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">reentrant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và được tối ưu hoá về tốc độ, ít tốn bộ nhớ và khả năng mở rộng inline code ở mức tối thiểu nên các tệp thực thi nhỏ hơn. Ngoài ra còn thread-safe trong trường hợp làm read-only containers cho tất cả các threads truy cập. Duyệt containers bằng iterators (STL-style iterators)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Qlist: append nhanh, Qlist tương tự std::vector. Dùng std::list nếu cần linked-list</t>
+  </si>
+  <si>
+    <t>Có thể sử dụng Qt containers với các function trong std algorithms</t>
+  </si>
+  <si>
+    <t>8.Essential Qt core classes: QTimer, QFile, QDir,  QIODevice,  QDataStream, QTextStream, QRegExp, QSettings, etc..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9.Qt resource</t>
+  </si>
+  <si>
+    <t>10.Qt Localization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +994,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -740,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,6 +1078,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D9947C-99D0-43BA-9AB8-39686761F8C3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1483,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D911B-0C14-4168-924F-643D9742BAE5}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1563,4 +1892,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8AF91-3E7A-4F50-B8FF-5CCBEF4A0606}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" location="implicit-sharing-iterator-problem" display="https://doc.qt.io/qt-6/containers.html - implicit-sharing-iterator-problem" xr:uid="{4E232635-CB94-4D1A-91E1-AADA6E7AC0AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68E422-4D51-44C7-B173-DDC3B485B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FD7EC-C146-4951-B167-497D22B9D615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Basics</t>
   </si>
@@ -669,114 +670,109 @@
     <t>2.Meta-Object System</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hệ thống meta-obj của Qt cung cấp cơ chế signals, slots để liên lạc giữa các đối tượng, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RTTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và hệ thống dynamic property.
+    <t>3.Signals and Slots</t>
+  </si>
+  <si>
+    <t>4.Events and Event Handling</t>
+  </si>
+  <si>
+    <t>5.Qt value-based classes: Memory allocation and usage of implicit sharing.</t>
+  </si>
+  <si>
+    <t>Nhiều lớp C++ trong Qt sử dụng cơ chế implicit data sharing nhằm tối đa hoá việc sử dụng tài nguyên và giảm thiểu việc sao chép dữ liệu. Các lớp được chia sẻ vừa an toàn và hiệu quả bởi khi được truyền dưới dạng đối số, chỉ có con trỏ tới dữ liệu được truyền xung quanh, còn data chỉ được sao chép khi thực hiện các hành động ghi dữ liệu vào nó (gọi là copy-on-write)
+1 shared class bao gồm 1 con trỏ tới 1 shared data block chứa ref count và data
+Việc gán đối tượng (operator =()) cho implicitly shared objects là shallow copies. Dữ liệu không bị lặp nếu không cần thiết, từ đó giảm tiêu tốn bộ nhớ và các thao tác sao chép data. Objs có thể được gán, passed as args và đượ trả về từ hàm một cách dễ dàng. Đây là cơ chế phía dưới, do đó lập trình viên thường không cần bận tâm về vấn đề này.
+Nếu muốn triển khai 1 lớp chia sẻ ngầm riêng, sử dụng lớp QSharedData và QSharedDataPointer
+Implicit sharing tự động tách obj từ 1 shared block nếu obj bị thay đổi và ref count &gt; 1</t>
+  </si>
+  <si>
+    <t>Qt's container iterators have different behavior than those from the STL. Read Implicit sharing iterator problem.
+In multithreaded applications, implicit sharing takes place, as explained in Threads and Implicitly Shared Classes.</t>
+  </si>
+  <si>
+    <t>QPixmap p1, p2;
+p1.load("image.bmp");
+p2 = p1;                        // p1 and p2 share data
+QPainter paint;
+paint.begin(&amp;p2);               // cuts p2 loose from p1
+paint.drawText(0,50, "Hi");
+paint.end();</t>
+  </si>
+  <si>
+    <t>6.Qt Meta-Type System and QVariant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVariant hoạt động như 1 union cho các kiểu dữ liệu phổ biến trong Qt. QVariant obj chỉ giữ 1 giá trị duy nhất của 1 typeId() tại 1 thời điểm (có 1 số 3 kiểu multi-valued). Có thể kiểm tra và convert sang 1 kiểu khác bằng canConvert() và convert(), lấy giá trị bằng hàm toT() (const)
+Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
+QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
+</t>
+  </si>
+  <si>
+    <t>canConvert() có thể trả về true trong khi convert() có thể trả về false, do canConvert() chỉ trả về khả năng chung. Ví dụ 1 string cũng có thể convert sang int, nhưng nếu chứa ký tự không phải số thì không convert sang int được.</t>
+  </si>
+  <si>
+    <t>7.Item containers: QStack, QList, QMap, etc..</t>
+  </si>
+  <si>
+    <t>Qlist: append nhanh, Qlist tương tự std::vector. Dùng std::list nếu cần linked-list</t>
+  </si>
+  <si>
+    <t>Có thể sử dụng Qt containers với các function trong std algorithms</t>
+  </si>
+  <si>
+    <t>8.Essential Qt core classes: QTimer, QFile, QDir,  QIODevice,  QDataStream, QTextStream, QRegExp, QSettings, etc..</t>
+  </si>
+  <si>
+    <t>9.Qt resource</t>
+  </si>
+  <si>
+    <t>10.Qt Localization</t>
+  </si>
+  <si>
+    <t>'1. QML Engine: loading, compiling, creation, property bindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Scripting in QML basic: JavaScript basic usage, </t>
+  </si>
+  <si>
+    <t>3. Scripting in QML advanded: Worker scripts, JavaScript Resources In QML.</t>
+  </si>
+  <si>
+    <t>4. Data Conversion Between QML and C++</t>
+  </si>
+  <si>
+    <t>5. Accessing QML objects from C++ and vice versa</t>
+  </si>
+  <si>
+    <t>6. C++ Custom Types: enum, QGadget/QObject-based type.</t>
+  </si>
+  <si>
+    <t>7. Expose/Register new type from Cpp to QML.</t>
+  </si>
+  <si>
+    <t>8. C++ Custom Types advanced: Default Properties, Grouped Properties, Attached Properties/Signals</t>
+  </si>
+  <si>
+    <t>9. C++ Models in QML: String List Model, Object List Model, Abstract Item Model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống meta-obj của Qt cung cấp cơ chế signals, slots để liên lạc giữa các đối tượng, RTTI và hệ thống dynamic property.
 Hệ thống meta-obj dựa trên 3 thứ:
 - Lớp QObject cung cấp lớp cơ sở để các đối tượng có thể tận dụng hệ thống meta-obj 
 - Q_OBJECT macro bên trong phần private của khai báo lớp dùng để enable các tính năng của meta-object như dynamic properties, siggnals, slots
 - Meta-Object Compiler (moc) cung cấp mã nguồn cần thiết cho mỗi lớp con QObject để triển khai các tính năng của meta-obj
 moc tool đọc file mã nguồn C++, Nếu nó tìm thấy các khai báo lớp có chứa Q_OBJECT macro, nó sẽ tạo ra file mã nguồn C++ có chứa meta-obj code cho mỗi lớp đó. Tệp mã nguồn này sẽ được include vào mã nguồn của lớp, được compile và link với việc triển khai của lớp.
 Ngoài việc  cung cấp cơ chế signals, slots. Meta-obj code còn cung cấp các tính năng sau
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- QObject::metaObject() trả về meta-obj liên quan cho lớp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+- QObject::metaObject() trả về meta-obj liên quan cho lớp
 - QMetaObject::className() trả về tên lớp dưới dạng string tại run-time mà không yêu cầu hỗ trợ native RTTI thông qua trình biên dịch C++
 - QObject::inherits(): hàm kiểm tra xem đối tượng có thuộc 1 lớp kế thừa 1 lớp được chỉ định trong cây kế thừa QObject
 - QObject::tr() translates strings for internationalization.
 - QObject::setProperty(), ::property(): dynamically set and get properties by name.
 - QMetaObject::newInstance(): tạo 1 đối tượng mới của lớp
-Có thể thực hiện dynamic casts QObject bằng qobject_cast() (hành vi tương tự như C++ dynamic_cast()) với ưu điểm là nó không yêu cầu hỗ trợ RTTI và</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hoạt động trên các ranh giới thư viện động.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sử dụng QObject làm lớp cơ sở mà có Q_OBJECT macro, các tính năng của meta-obj sẽ không khả dụng. QMetaObject::className() trả về tên của lớp tổ tiên gần nhất có meta-obj code. 
-"Therefore, we strongly recommend that all subclasses of QObject use the Q_OBJECT macro regardless of whether or not they actually use signals, slots, and properties."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>3.Signals and Slots</t>
-  </si>
-  <si>
-    <t>4.Events and Event Handling</t>
-  </si>
-  <si>
-    <t>5.Qt value-based classes: Memory allocation and usage of implicit sharing.</t>
-  </si>
-  <si>
-    <t>Nhiều lớp C++ trong Qt sử dụng cơ chế implicit data sharing nhằm tối đa hoá việc sử dụng tài nguyên và giảm thiểu việc sao chép dữ liệu. Các lớp được chia sẻ vừa an toàn và hiệu quả bởi khi được truyền dưới dạng đối số, chỉ có con trỏ tới dữ liệu được truyền xung quanh, còn data chỉ được sao chép khi thực hiện các hành động ghi dữ liệu vào nó (gọi là copy-on-write)
-1 shared class bao gồm 1 con trỏ tới 1 shared data block chứa ref count và data
-Việc gán đối tượng (operator =()) cho implicitly shared objects là shallow copies. Dữ liệu không bị lặp nếu không cần thiết, từ đó giảm tiêu tốn bộ nhớ và các thao tác sao chép data. Objs có thể được gán, passed as args và đượ trả về từ hàm một cách dễ dàng. Đây là cơ chế phía dưới, do đó lập trình viên thường không cần bận tâm về vấn đề này.
-Nếu muốn triển khai 1 lớp chia sẻ ngầm riêng, sử dụng lớp QSharedData và QSharedDataPointer
-Implicit sharing tự động tách obj từ 1 shared block nếu obj bị thay đổi và ref count &gt; 1</t>
-  </si>
-  <si>
-    <t>Qt's container iterators have different behavior than those from the STL. Read Implicit sharing iterator problem.
-In multithreaded applications, implicit sharing takes place, as explained in Threads and Implicitly Shared Classes.</t>
+Có thể thực hiện dynamic casts QObject bằng qobject_cast() (hành vi tương tự như C++ dynamic_cast()) với ưu điểm là nó không yêu cầu hỗ trợ RTTI và hoạt động trên các ranh giới thư viện động.
+Sử dụng QObject làm lớp cơ sở mà có Q_OBJECT macro, các tính năng của meta-obj sẽ không khả dụng. QMetaObject::className() trả về tên của lớp tổ tiên gần nhất có meta-obj code. 
+"Therefore, we strongly recommend that all subclasses of QObject use the Q_OBJECT macro regardless of whether or not they actually use signals, slots, and properties."
+</t>
   </si>
   <si>
     <r>
@@ -787,7 +783,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -806,27 +801,6 @@
     </r>
   </si>
   <si>
-    <t>QPixmap p1, p2;
-p1.load("image.bmp");
-p2 = p1;                        // p1 and p2 share data
-QPainter paint;
-paint.begin(&amp;p2);               // cuts p2 loose from p1
-paint.drawText(0,50, "Hi");
-paint.end();</t>
-  </si>
-  <si>
-    <t>6.Qt Meta-Type System and QVariant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QVariant hoạt động như 1 union cho các kiểu dữ liệu phổ biến trong Qt. QVariant obj chỉ giữ 1 giá trị duy nhất của 1 typeId() tại 1 thời điểm (có 1 số 3 kiểu multi-valued). Có thể kiểm tra và convert sang 1 kiểu khác bằng canConvert() và convert(), lấy giá trị bằng hàm toT() (const)
-Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
-QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
-</t>
-  </si>
-  <si>
-    <t>canConvert() có thể trả về true trong khi convert() có thể trả về false, do canConvert() chỉ trả về khả năng chung. Ví dụ 1 string cũng có thể convert sang int, nhưng nếu chứa ký tự không phải số thì không convert sang int được.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1 QVariant là null nếu nó không chứa giá trị khởi tạo hoặc chứa con trỏ null
 </t>
@@ -835,7 +809,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -846,7 +819,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -863,7 +835,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -875,7 +846,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -888,7 +858,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -898,68 +867,60 @@
     </r>
   </si>
   <si>
-    <t>7.Item containers: QStack, QList, QMap, etc..</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thư viện Qt cung cấp một tập hợp template-based container classes cho mục đích chung, dùng để lưu trữ các items thuộc loại được chỉ định. Các container classes này được thiết kế nhẹ hơn, an toàn và dễ sử dụng hơn STL containers.
-Những lớp này được chia sẻ ngầm, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">reentrant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>và được tối ưu hoá về tốc độ, ít tốn bộ nhớ và khả năng mở rộng inline code ở mức tối thiểu nên các tệp thực thi nhỏ hơn. Ngoài ra còn thread-safe trong trường hợp làm read-only containers cho tất cả các threads truy cập. Duyệt containers bằng iterators (STL-style iterators)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Qlist: append nhanh, Qlist tương tự std::vector. Dùng std::list nếu cần linked-list</t>
-  </si>
-  <si>
-    <t>Có thể sử dụng Qt containers với các function trong std algorithms</t>
-  </si>
-  <si>
-    <t>8.Essential Qt core classes: QTimer, QFile, QDir,  QIODevice,  QDataStream, QTextStream, QRegExp, QSettings, etc..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>9.Qt resource</t>
-  </si>
-  <si>
-    <t>10.Qt Localization</t>
+    <t xml:space="preserve">Thư viện Qt cung cấp một tập hợp template-based container classes cho mục đích chung, dùng để lưu trữ các items thuộc loại được chỉ định. Các container classes này được thiết kế nhẹ hơn, an toàn và dễ sử dụng hơn STL containers.
+Những lớp này được chia sẻ ngầm, reentrant và được tối ưu hoá về tốc độ, ít tốn bộ nhớ và khả năng mở rộng inline code ở mức tối thiểu nên các tệp thực thi nhỏ hơn. Ngoài ra còn thread-safe trong trường hợp làm read-only containers cho tất cả các threads truy cập. Duyệt containers bằng iterators (STL-style iterators)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events là obj trong Qt C++ app, được đại diện bởi QEvent class. Đây là cơ chế cấp thấp cho phép điều kiển giao diện và hành vi của các lớp và đối tượng, đặc biệt là widgets.
+Khi 1 sự kiện xảy ra, Qt tạo 1 instance của 1 Qevent subclass thích hợp và gọi hàm event(), hàm này không tự xử lý sự kiện mà gọi các hàm thích hợp dựa trên kiểu của event (mousePressEvent(), keyPressEvent(),...) và return true hoặc false dựa vào việc event được accept hay ignore.
+Mục đích của events cũng giống như signals/slots. Nhưng events làm được những việc ở cấp thấp, ảnh hưởng sâu đến hành vi của obj. Cơ chế signals/slots cũng được cung cấp bởi các sự kiện
+Event propagation: có thể truyền event cho base class xử lý bằng cách gọi hàm của base class
+- accept (default): người dùng xử lý event, hệ thống k cần xử lý
+- ignore: người dùng không xử lý event
+Event filter: Cơ chế mà 1 obj được sử dụng để theo dõi và xử lý event của 1 hay nhiều obj khác. Trong filterObj cần impl hàm eventFilter(): return true nếu xử lý event và không truyền tới targetObj 
+Các cách xử lý sự kiện trong Qt:
+- Reimpl paintEvent(), mousePressEvent(),...: phổ biến nhất, đơn giản nhất nhưng ít hiệu quả nhất
+- Reimpl QCoreApplication::notify: mạnh mẽ, có khả năng kiểm soát hoàn toàn, nhưng chỉ 1 lớp con hoạt động tại 1 thời điểm
+- Installing an event filter on QCoreApplication::instance()
+- Reimpl QObject::event().
+- Installing an event filter on the obj.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QObject::installEventFilter(filterObj)
+QObject::removeEventFilter()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qtimer được sử dụng để kích hoạt các sự kiện sau 1 khoảng thời gian nhất định. Sau khi gọi start(), Qtimer sẽ emit timeout() signal sau mỗi khoảng interval. Dùng setSingleShot(true) để emit timeOut() 1 lần. Trong các ứng dụng đa luồng, có thể sử dụng QTimer ở luồng có event loop. Timer không thể start và stop ở 2 thread khác nhau.
+QFile là 1 I/O device dùng để đọc ghi text, binary files và resources. QFile có thể được sử dụng độc lập hoặc kết hợp với QTextStream hoặc QDataStream. Method: open(mode), close, read, readLine, write, errorString, size. Mode: QIODevice::WriteOnly, ReadWrite, Append. Ngoài thao tác với file, QFile còn hỗ trợ quản lý thư mục: mkdir, remove
+</t>
+  </si>
+  <si>
+    <t>Qt resource system là 1 cơ chế độc lập với nền tảng để lưu trữ các tệp nhị phân (icons, translation files,…) trong tệp thực thi, dựa trên sự kết hợp chặt chẽ giữa qmake, rcc và Qfile
+Resources liên kết với app được chỉ định trong file .qrc, file được viết dưới dạng XML. Các tệp resource được liệt kê trong tệp .qrc là 1 phần của app's source tree. Các tệp này phải cùng directory với file .qrc hoặc là các subdirectory.
+Resource data có thể được biên dịch thành binary, do đó có thể được truy cập ngay lập tức trong app code hoặc binary resource có thể được tạo tại 1 thời điểm sau đó trong app code được đăng ký với resource system
+External Binary Resources
+Compiled-In Resources
+Compression</t>
+  </si>
+  <si>
+    <t>https://doc.qt.io/qt-5/resources.html
+https://doc.qt.io/qt-6/resources.html</t>
+  </si>
+  <si>
+    <t>Là các quá trình điều chỉnh ứng dụng cho phù hợp với các ngôn ngữ khác nhau, sự khác biệt khu vực và yêu cầu kỹ thuật của target market
+String muốn được dịch từng ngôn ngữ phải gọi qua hàm qstr() (qml)|| tr() (c++)
+Để có được file ts chứa các thông tin cần dịch, cần thêm translatión += file.ts trong file .pro sau đó sử dụng tool để lupdate file .ts
+Để load 1 file qm cần sử dụng hàm Qtranslator::load()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,7 +958,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,7 +971,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1060,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1080,13 +1045,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1899,7 +1870,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,124 +1883,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="360.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2037,4 +2018,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFF33B-4E99-4632-9FFB-1446F3A57CE9}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FD7EC-C146-4951-B167-497D22B9D615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C751CF0-CE96-46D3-82ED-4D26A18CD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Basics</t>
   </si>
@@ -700,12 +701,6 @@
   </si>
   <si>
     <t>6.Qt Meta-Type System and QVariant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QVariant hoạt động như 1 union cho các kiểu dữ liệu phổ biến trong Qt. QVariant obj chỉ giữ 1 giá trị duy nhất của 1 typeId() tại 1 thời điểm (có 1 số 3 kiểu multi-valued). Có thể kiểm tra và convert sang 1 kiểu khác bằng canConvert() và convert(), lấy giá trị bằng hàm toT() (const)
-Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
-QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
-</t>
   </si>
   <si>
     <t>canConvert() có thể trả về true trong khi convert() có thể trả về false, do canConvert() chỉ trả về khả năng chung. Ví dụ 1 string cũng có thể convert sang int, nhưng nếu chứa ký tự không phải số thì không convert sang int được.</t>
@@ -914,6 +909,53 @@
 String muốn được dịch từng ngôn ngữ phải gọi qua hàm qstr() (qml)|| tr() (c++)
 Để có được file ts chứa các thông tin cần dịch, cần thêm translatión += file.ts trong file .pro sau đó sử dụng tool để lupdate file .ts
 Để load 1 file qm cần sử dụng hàm Qtranslator::load()</t>
+  </si>
+  <si>
+    <t>'1.Essential Qt Quick classes: QQuickView, QQuickItem, QQuickPaintedItem</t>
+  </si>
+  <si>
+    <t>2.Essential QML module classes: QQmlEngine, QQmlComponent, QQmlContext</t>
+  </si>
+  <si>
+    <t>3.QML profiling</t>
+  </si>
+  <si>
+    <t>4.Essential element types for graphics, user interactions, and layout</t>
+  </si>
+  <si>
+    <t>5.QML Methods, Properties, signals</t>
+  </si>
+  <si>
+    <t>6.User interaction: Mouse, Key, Touch, Gesture, Focus</t>
+  </si>
+  <si>
+    <t>7.Animations</t>
+  </si>
+  <si>
+    <t>8.Dynamic QML: dynamically allocate objects in QML, Object ownership and parentship, Asynchronous loading/object creation</t>
+  </si>
+  <si>
+    <t>Quá nhiều JS trong ít frames, js cần return thì GUI thread mới có thể tiếp tục tiến trình -&gt; frames bị delay hoặc drop
+Tạo, vẽ, cập nhật các unvisible item.</t>
+  </si>
+  <si>
+    <t>Sử dụng QML Profiler để tìm ra nguyên nhân của các vấn đề về hiệu năng như chậm, treo UI
+QML Profiler not profile C++ code</t>
+  </si>
+  <si>
+    <t>Keys.onPressed: (event)=&gt; {}
+Keys.onLeftPressed: console.log("move left")</t>
+  </si>
+  <si>
+    <t>Mouse: clicked(), doubleClick(), entered(), exited(), pressAndHold(), pressed(), released().
+Key: Tất cả visual primitives hỗ trợ xử lý sự kiện bàn phím thông qua Keys attached property. Keys có thể xử lý thông qua onPressed và onReleased signal properties, chứa tham số KeyEvent là event
+Touch: xảy ra khi nhấn, thả, di chuyển 1 hay nhiều touch points trên 1 touch device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVariant hoạt động như 1 union cho các kiểu dữ liệu phổ biến trong Qt. QVariant obj chỉ giữ 1 giá trị duy nhất của 1 typeId() tại 1 thời điểm (có 1 số kiểu multi-valued). Có thể kiểm tra và convert sang 1 kiểu khác bằng canConvert() và convert(), lấy giá trị bằng hàm toT() (const)
+Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
+QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
+</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8AF91-3E7A-4F50-B8FF-5CCBEF4A0606}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1942,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1920,10 +1962,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="8"/>
@@ -1939,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>71</v>
@@ -1950,39 +1992,39 @@
         <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1990,23 +2032,23 @@
     </row>
     <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2021,11 +2063,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B8FBB-819F-4147-965B-71BFADBB27B5}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="6"/>
+    <col min="2" max="2" width="93.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="18" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFF33B-4E99-4632-9FFB-1446F3A57CE9}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,47 +2151,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C751CF0-CE96-46D3-82ED-4D26A18CD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93998692-9770-4797-B5E8-0AC52106F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Qt Quick Basic" sheetId="5" r:id="rId4"/>
+    <sheet name="QT C++" sheetId="4" r:id="rId5"/>
+    <sheet name="Qt Core Advance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Basics</t>
   </si>
@@ -956,6 +957,66 @@
 Có thể xây dựng các cấu trúc dữ liệu phức tạp 1 cách linh hoạt thông qua QList&lt;QVariant&gt;, QMap&lt;QString,QVariant&gt;. Tuy nhiên, cách này kém hiệu quả hơn về bộ nhớ và tốc độ hơn so với việc lưu trữ các kiểu cụ thể.
 QVariant có thể được mở rộng để hỗ trợ các kiểu dữ liệu custom khác. https://doc.qt.io/qt-6/custom-types.html
 </t>
+  </si>
+  <si>
+    <t>2.Networking: TCP, UDP, SSL certificates</t>
+  </si>
+  <si>
+    <t>3.IPC: SharedMemory, Dbus</t>
+  </si>
+  <si>
+    <t>4.Create/Load libraries, plugins</t>
+  </si>
+  <si>
+    <t>5.Database handling: Inserting, deleting, and querying data in a database (SQL)</t>
+  </si>
+  <si>
+    <t>6.Unit Testing: Qt Test</t>
+  </si>
+  <si>
+    <t>7.Deploying Qt apllication: Window, Linux</t>
+  </si>
+  <si>
+    <t>1.Qt threading: QThread, Qconcurence</t>
+  </si>
+  <si>
+    <t>Lớp Qthread cung cấp 1 cách độc lập với nền tảng để quản lý các luồng.
+Là 1 lớp con của Qobject
+-not copiable/moveable
+- signals: started, finished
+Qthread usage:
+- create worker &amp; QThread instance | moveToThread(worker) | use signal/slot
+- subclass Qthread, reimpl run() | create instance | call start()
+- QThread::create(fn_name, fn_arg) | thread -&gt;start()  (Qt5.10)
++ thread sẽ dừng khi (sau khi) hàm run() return
++ Tạm thời dừng thread bằng QThread::sleep() (bad-idea -&gt; event driven (polling))
++ qThread-&gt;wait(): đợi thread finish, thường thêm giới hạn thời gian đợi
+QThread caveats
+- Từ 1 non-main thread, không thể thực hiện GUI operator, không thể gọi QCoreApplication::exec(), QGuiApplication::exec()
+- Không block GUI thread
+- Luôn destroy QObjects ở secondary threads trước khi huỷ QThread obj
++ tạo obj trong stack của hàm run()
++ connect QObject::deleteLater() với QThread::finished()
++ move khỏi thread đó
+- Có thể sử dụng QThread với event loop bằng cách gọi QThread::exec() trong hàm run() -&gt; thoát bằng quit(), exit(). Cũng có thể sử dụng QEventLoop bằng cách gọi thủ công QCoreApplication::processEvents(). Mặc định, hàm QThread::run() gọi QThread::exec() (nên có thể dùng QThread như cách 1)</t>
+  </si>
+  <si>
+    <t>https://www.kdab.com/wp-content/uploads/stories/multithreading-with-qt-1.pdf</t>
+  </si>
+  <si>
+    <t>Thread safe: Qmutex, Qobject::connect(), QcoreApplication::postEvent()
+Reentrant: Qstring, Qvector, Qimage, value classes
+Non-reentrant: Qwidget(inc all subclasses), QQuickItem, Qpixmap, GUI classes
+Qobj có khả năng nhận biết luồng. Mọi Qobj  instances giữ ref tới thread mà nó được tạo.
+Các lớp Event-based (timers, sockets,...) là non-reentrant 
+Tất cả các QObjs cùng parent/child tree phải cùng thread</t>
+  </si>
+  <si>
+    <t>Qt Concurrent module cung cấp high-level APIs để có thể viết chương trình đa luồng mà không cần dùng các thành phần cấp thấp như mutexes, read-write locks, wait conditions, semaphores. Chương trình viết bằng Qt Concurrent sẽ tự động  điều chỉnh số luồng sử dụng dựa trên số processor cores khả dụng. Do đó, ứng dụng được viết hiện tại sẽ tiếp tục scale khi được deploy ở các hệ thống đa luồng trong tương lai.
+Qt Concurrent bao gồm các API kiểu functional programming để xử lý danh sách song song, bao gồm MapReduce và FilterReduce impl cho shared-memory systems và các lớp quản lý tính toán bất đồng bộ trong GUI app</t>
+  </si>
+  <si>
+    <t>Qt hỗ trợ nhiều cách để các process chạy trên cùng hoặc khác hệ thống có thể giao tiếp với nhau.</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1100,6 +1161,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1911,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8AF91-3E7A-4F50-B8FF-5CCBEF4A0606}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,4 +2261,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456DC4A-49AF-4AD0-BA47-940B8F556CFD}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="6" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93998692-9770-4797-B5E8-0AC52106F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DED66F-E938-4CB4-8CD9-826C5C8CC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4590" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Basics</t>
   </si>
@@ -1017,6 +1017,10 @@
   </si>
   <si>
     <t>Qt hỗ trợ nhiều cách để các process chạy trên cùng hoặc khác hệ thống có thể giao tiếp với nhau.</t>
+  </si>
+  <si>
+    <t>Qt Network module cung cấp các lớp để có thể viết TCP/IP client và server, cung cấp các lớp đại diện cho khái niệm mạng cấp thấp như QTcpSocket, QTcpServer, QUdpSocket và các lớp cấp cao như QnetworkRequest, QnetworkReply, QnetworkAccessManager để thực hiện các hoạt động mạng bằng cách sử dụng giao thức chung
+SSL cert đóng vai trò là thẻ định danh kỹ thuật số để bảo mật hoạt động giao tiếp mạng, thiết lập danh tính của các trang web qua internet cũng như tài nguyên trên các mạng riêng.</t>
   </si>
 </sst>
 </file>
@@ -1387,6 +1391,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2672182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50DCFEF-171B-0042-FD94-E437925AE9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="5143500"/>
+          <a:ext cx="3400425" cy="2672182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2267,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456DC4A-49AF-4AD0-BA47-940B8F556CFD}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,9 +2351,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2333,5 +2389,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FT_Note.xlsx
+++ b/FT_Note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT\FT_Qt_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DED66F-E938-4CB4-8CD9-826C5C8CC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D622DF-7CA7-4B30-8BBF-B8B093BDCCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{7A918531-ACB2-46DA-92B8-2A6C9FE3B68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Qt Quick Basic" sheetId="5" r:id="rId4"/>
     <sheet name="QT C++" sheetId="4" r:id="rId5"/>
     <sheet name="Qt Core Advance" sheetId="6" r:id="rId6"/>
+    <sheet name="Qt Quick Advance" sheetId="7" r:id="rId7"/>
+    <sheet name="Qt Widget" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t>Basics</t>
   </si>
@@ -1021,6 +1023,188 @@
   <si>
     <t>Qt Network module cung cấp các lớp để có thể viết TCP/IP client và server, cung cấp các lớp đại diện cho khái niệm mạng cấp thấp như QTcpSocket, QTcpServer, QUdpSocket và các lớp cấp cao như QnetworkRequest, QnetworkReply, QnetworkAccessManager để thực hiện các hoạt động mạng bằng cách sử dụng giao thức chung
 SSL cert đóng vai trò là thẻ định danh kỹ thuật số để bảo mật hoạt động giao tiếp mạng, thiết lập danh tính của các trang web qua internet cũng như tài nguyên trên các mạng riêng.</t>
+  </si>
+  <si>
+    <t>'1.2D and 3D Canvas usage</t>
+  </si>
+  <si>
+    <t>2.Graphical Effect on QML: FastBlur, Opacity Mask, etc..</t>
+  </si>
+  <si>
+    <t>3.Particle system</t>
+  </si>
+  <si>
+    <t>4.Define new visual type QQuickItem and QQuickPaintedItem</t>
+  </si>
+  <si>
+    <t>5.Scene graph nodes, Scene graph structure</t>
+  </si>
+  <si>
+    <t>6.Geometry and material</t>
+  </si>
+  <si>
+    <t>7.Scene graph rendering</t>
+  </si>
+  <si>
+    <t>8.Rendering performance optimization</t>
+  </si>
+  <si>
+    <t>'1.Layout</t>
+  </si>
+  <si>
+    <t>2.Button, checkboxes</t>
+  </si>
+  <si>
+    <t>3.Combos, lists, spinbox,…</t>
+  </si>
+  <si>
+    <t>4.Resource</t>
+  </si>
+  <si>
+    <t>5.Multi dialogs</t>
+  </si>
+  <si>
+    <t>6.QmainWindows</t>
+  </si>
+  <si>
+    <t>7.Containers</t>
+  </si>
+  <si>
+    <t>8.Rich Text editor</t>
+  </si>
+  <si>
+    <t>9.Models</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Mô-đun Qt Graphical Effects cung cấp 1 tập hợp các QML type để thêm các hiệu ứng trực quan ấn tượng và có thể cấu hình vào UI. Effects là các visual item có thể thêm vào Qt Quick UI dưới dạng UI components</t>
+  </si>
+  <si>
+    <t>https://doc.qt.io/qt-5/qtgraphicaleffects-qmlmodule.html</t>
+  </si>
+  <si>
+    <t>Partical system chứa 4 thành phần chính: ParticleSystem, Painters, Emitters, Affectors</t>
+  </si>
+  <si>
+    <t>QQuickPaintedItem sets up 1 textured rectangle trong Scene Graph và sử dụng QPainter để vẽ nội dung lên texture đó.
+- Render target: QImage thì sẽ render vào image, sau đó upload image content vào texture rồi mới được uploaded lên graphic memory để hiển thị (sử dụng CPU)
+=&gt; high quality anti-aliasing và fast resizing
+- Render target: QOpenGLFrameBufferObject sẽ vẽ trực tiếp lên texture luôn</t>
+  </si>
+  <si>
+    <t>Scene graph là một cấu trúc dữ liệu độc lập, chứa đủ thông tin để vẽ lên màn hình thông qua các OpenGL API,Được hiển thị , thao tác độc lập với các trạng thái của QML item, Thường được render trên một thread chuyên dụng,Được thiết kế bao gồm một tập hợp các node được xác định trước. Chủ yếu được xây dựng từ các kiểu QQuickItem trong qml scene và cac internal scene</t>
+  </si>
+  <si>
+    <t>Scene graph rendering là quá trình vẽ và hiển thị các phần tử trong cấu trúc scene graph của ứng dụng Qt Quick. Điều này bao gồm việc xác định thứ tự vẽ của các phần tử, tối ưu hóa hiệu suất vẽ và quản lý cách các phần tử được hiển thị trên màn hình.</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa hiệu suất rendering là một phần quan trọng trong việc phát triển ứng dụng đồ họa để đảm
+bảo rằng nó chạy mượt mà và có thời gian phản hồi nhanh. Dưới đây là một số cách bạn có thể tối ưu hóa hiệu suất rendering trong ứng dụng Qt Quick:
+Cắt bỏ (Culling): cách sử dụng thuộc tính clip và visible.
+Tối ưu hóa Độ trong suốt (Opacity)
+Tối ưu hóa Kích thước Ảnh và Texture:
+Cân nhắc Tích hợp Phần cứng (Hardware Acceleration).</t>
+  </si>
+  <si>
+    <t>Geometry là mô tả vị trí và hình dạng của các phần tử đồ họa. Nó thường bao gồm thông tin về điểm (vertices), cạnh (edges), và mặt (faces) của các hình dạng đồ họa.
+Trong ngữ cảnh của đồ họa 2D, geometry có thể đại diện cho các hình chữ nhật, hình tròn, đường thẳng, v.v.
+Trong đồ họa 3D, geometry mô tả các hình dạng 3D phức tạp như các đối tượng 3D, bề mặt và mạng lưới 3D.</t>
+  </si>
+  <si>
+    <t>Material là mô tả về cách mà một đối tượng hoặc hình dạng được vẽ hoặc hiển thị trên màn hình. Nó xác định màu sắc, độ trong suốt, ánh sáng phản xạ và các thuộc tính khác của đối tượng đó.
+Trong ngữ cảnh 2D, một material có thể là một màu sắc đơn giản, một hình ảnh hoặc một loại hiệu ứng như gradient.
+Trong đồ họa 3D, material có thể định nghĩa cách một bề mặt phản ánh ánh sáng, có độ trong suốt và có các thuộc tính vật lý như độ bóng, độ nhám, v.v.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canvas cho phép vẽ các hình dạng từ đơn giản đến phức tạp, tham chiếu tới graphic images, cũng có thể thêm text, colors, shadows, gradients, patterns và thực hiện các thao tác ở mức độ pixel
+Sử dụng Context2D obj để render lên Canvas (thường thông qua </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> signal), getContext trả về 1 đối tượng để thực hiện thao tác vẽ.
+renderStrategy: Immediate, Threaded, Cooperative
+renderTargets: Image (default), FramebufferObject (bỏ từ Qt 6.0)
+Common Note:
+- markDirty(rect area): để đánh dấu 1 vùng là dirty, canvas renderer sẽ vẽ lại vùng này visible. Đây chỉ là thông báo đánh dấu chứ không tự render lại
+- requestPaint(): sẽ yêu cầu vẽ lại toàn bộ khu vực hiển thị
+- loadImage : Tải hình ảnh đã cho một cách không đồng bộ. Khi hình ảnh đã sẵn sàng, tín hiệu imageLoaded() sẽ được phát ra. Hình ảnh đã tải có thể được unload bằng phương thức unloadImage()
+- Nên tránh dùng  renderTarget : Canvas.Image cho canvas có kích thước lớn, thay vào đó có thể xem xét dùng QQuickPaintedItem và implement việc drawing ở C++ để tốn ít chi phí và hiệu năng cao hơn dùng QML Canvas (bớt bước chuyển đổi qml-&gt;C++)
+Mô-đun Qt Canvas3D được hỗ trợ đầy đủ từ Qt 5.5. Canvas3D cung cấp API cấp thấp giống OpenGL, cho phép thực thi các lệnh vẽ 3D từ JS. Cho phép dễ dàng chuyển nội dung WebGL từ HTML sang Qt Quick hoặc chia sẻ cùng 1 mã WebGL giữa Qt Quick và HTML apps.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Canvas {
+    id: mycanvas
+    width: 100
+    height: 200
+    onPaint: {
+        var ctx = getContext("2d");
+        ctx.fillStyle = Qt.rgba(1, 0, 0, 1);
+        ctx.fillRect(0, 0, width, height);
+    }
+}
+Canvas3D {
+    id: canvas3d
+    anchors.fill: parent
+    focus: true
+    property var gl
+    onInitializeGL: {
+        gl = canvas3d.getContext("experimental-webgl");
+        // Setup clear color to be a random color
+        gl.clearColor(Math.random(), Math.random(), Math.random(), 1.0);
+        // Setup viewport
+        gl.viewport(0, 0, canvas3d.width * canvas3d.devicePixelRatio, canvas3d.height * canvas3d.devicePixelRatio);
+    }
+    onPaintGL: {
+        // Clear background to current clear color
+        gl.clear(gl.COLOR_BUFFER_BIT);
+    }
+    onResizeGL: {
+        var pixelRatio = canvas3d.devicePixelRatio;
+        canvas3d.pixelSize = Qt.size(canvas3d.width * pixelRatio, canvas3d.height * pixelRatio);
+        if (gl)
+            gl.viewport(0, 0, canvas3d.width * canvas3d.devicePixelRatio, canvas3d.height * canvas3d.devicePixelRatio);
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiệu năng của Qt Quick app liên quan tới nhiều khía cạnh: C++, JS, Rendering
+</t>
+  </si>
+  <si>
+    <t>QQuickItem có thể được sử dụng làm lớp cơ sở để tạo ra các phần tử trực quan tùy chỉnh bằng cách kế thừa nó và triển khai hành vi mong muốn. - QQuickPaintedItem: QQuickPaintedItem là một lớp con của QQuickItem cung cấp cách để vẽ nội dung tùy chỉnh sử dụng QPainter. Nó cho phép bạn vẽ đồ họa tùy chỉnh bằng cách sử dụng API QPainter trong cảnh Qt Quick. Bạn có thể ghi đè hàm paint() của QQuickPaintedItem để thực hiện các hoạt động vẽ tùy chỉnh. + mỗi lần thay đổi property liên quan tới giao diện thì gọi update "QML thường tách biệt 2 threads: - Main thread: để xử lý event, update animation, binding data - Render thread: render items lên buffer và swap buffer để hiển thị lên màn hình Hàm paint() được gọi ở render thread nhưng tại thời điểm hàm paint() được gọi thì main thread sẽ block. Vì vậy nó được gọi là thread-safe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qt Quick 2 sử dụng biểu đồ chuyển cảnh chuyên dụng thay vì hệ thống vẽ mệnh lệnh truyền thống (Qpainter)
+Qt Quick Scene Graph là 1 node tree, là sự thể hiện bằng đồ hoạ của Item scene, 1 cấu trúc độc lập chứa đủ thông tin để render tất cả các item.
+Node quan trọng nhất là QSGGeometryNode, được sử dụng để định nghĩa các custom graphic bằng     cách định nghĩa geometry và material của nó. Geometry được định nghĩa bằng việc sử dụng QSGGeometry và mô tả shape hoặc mesh của đồ hoạ nguyên thuỷ (line, rectangle, polygon, many disconnected rectangle, complex 3D mesh. </t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1168,6 +1352,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2184,7 +2371,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,10 +2386,16 @@
       <c r="A1" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2254,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFF33B-4E99-4632-9FFB-1446F3A57CE9}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,47 +2459,50 @@
     <col min="2" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2320,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456DC4A-49AF-4AD0-BA47-940B8F556CFD}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,6 +2577,9 @@
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2391,4 +2590,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F96ECA-53A0-4C36-9F2C-E9BB74ECB449}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B47F413A-8E62-4ACE-B250-409428A90BFF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EEA701-0EF5-48BE-8EB4-E41AB5B6D976}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="6" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>